--- a/DE/Compiled Attendence/BT-CSE-II-B51_ECEG1012_3.xlsx
+++ b/DE/Compiled Attendence/BT-CSE-II-B51_ECEG1012_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,95 +456,100 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>2024-01-11 12.00</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-13 11.00</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-16 10.00</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-18 12.00</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-20 11.00</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-23 10.00</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-25 12.00</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-27 11.00</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01-30 10.00</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-12 10.00</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-16 11.00</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-19 10.00</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-21 12.00</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>2024-03-23 11.00</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2024-04-02 10.00</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2024-04-04 12.00</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-23 10.00</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-16 10.00</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-11 12.00</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-18 12.00</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-13 11.00</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-20 11.00</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-27 11.00</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-25 12.00</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2024-01-30 10.00</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-16 11.00</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-19 10.00</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-21 12.00</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2024-03-12 10.00</t>
-        </is>
-      </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>2024-04-09 10.00</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>Total Classes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Total Present</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Percentage</t>
         </is>
@@ -621,12 +626,15 @@
         <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -701,12 +709,15 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -781,12 +792,15 @@
         <v>1</v>
       </c>
       <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>17</v>
+      </c>
+      <c r="X4" t="n">
         <v>16</v>
       </c>
-      <c r="W4" t="n">
-        <v>15</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>94</v>
       </c>
     </row>
@@ -843,31 +857,34 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="X5" t="n">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -941,12 +958,15 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1012,22 +1032,25 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1101,13 +1124,16 @@
         <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
         <v>8</v>
       </c>
-      <c r="X8" t="n">
-        <v>50</v>
+      <c r="Y8" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1175,18 +1201,21 @@
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1240,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1258,16 +1287,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1329,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1341,13 +1373,16 @@
         <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X11" t="n">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1412,21 +1447,24 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1480,13 +1518,13 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>1</v>
@@ -1495,19 +1533,22 @@
         <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>17</v>
+      </c>
+      <c r="X13" t="n">
         <v>13</v>
       </c>
-      <c r="X13" t="n">
-        <v>81</v>
+      <c r="Y13" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -1581,12 +1622,15 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1661,13 +1705,16 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X15" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -1741,12 +1788,15 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1821,13 +1871,16 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X17" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1889,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1901,12 +1954,15 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1963,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -1975,19 +2031,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>17</v>
+      </c>
+      <c r="X19" t="n">
         <v>6</v>
       </c>
-      <c r="X19" t="n">
-        <v>38</v>
+      <c r="Y19" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2043,31 +2102,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>17</v>
+      </c>
+      <c r="X20" t="n">
         <v>9</v>
       </c>
-      <c r="X20" t="n">
-        <v>56</v>
+      <c r="Y20" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -2135,19 +2197,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2203,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2215,19 +2280,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -2280,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2298,16 +2366,19 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -2360,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2378,16 +2449,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>17</v>
+      </c>
+      <c r="X24" t="n">
         <v>8</v>
       </c>
-      <c r="X24" t="n">
-        <v>50</v>
+      <c r="Y24" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="25">
@@ -2461,13 +2535,16 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -2529,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2541,12 +2618,15 @@
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2600,13 +2680,13 @@
         <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2618,16 +2698,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2701,12 +2784,15 @@
         <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2781,12 +2867,15 @@
         <v>1</v>
       </c>
       <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>17</v>
+      </c>
+      <c r="X29" t="n">
         <v>16</v>
       </c>
-      <c r="W29" t="n">
-        <v>15</v>
-      </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>94</v>
       </c>
     </row>
@@ -2861,12 +2950,15 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2941,12 +3033,15 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>17</v>
+      </c>
+      <c r="X31" t="n">
         <v>16</v>
       </c>
-      <c r="W31" t="n">
-        <v>15</v>
-      </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3021,12 +3116,15 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3101,12 +3199,15 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y33" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3181,13 +3282,16 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -3252,22 +3356,25 @@
         <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W35" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -3341,12 +3448,15 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3400,34 +3510,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="X37" t="n">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -3480,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3498,16 +3611,19 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>17</v>
+      </c>
+      <c r="X38" t="n">
         <v>10</v>
       </c>
-      <c r="X38" t="n">
-        <v>62</v>
+      <c r="Y38" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -3569,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -3581,13 +3697,16 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
+        <v>17</v>
+      </c>
+      <c r="X39" t="n">
         <v>10</v>
       </c>
-      <c r="X39" t="n">
-        <v>62</v>
+      <c r="Y39" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="40">
@@ -3649,10 +3768,10 @@
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
@@ -3661,12 +3780,15 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y40" t="n">
         <v>88</v>
       </c>
     </row>
@@ -3741,12 +3863,15 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
+        <v>1</v>
+      </c>
+      <c r="W41" t="n">
+        <v>17</v>
+      </c>
+      <c r="X41" t="n">
         <v>16</v>
       </c>
-      <c r="W41" t="n">
-        <v>15</v>
-      </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>94</v>
       </c>
     </row>
@@ -3821,13 +3946,16 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X42" t="n">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -3889,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>1</v>
@@ -3901,13 +4029,16 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="X43" t="n">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
